--- a/data/trans_camb/IMC_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>-11,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,33</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-14,08</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,41</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-6,23</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-12,88</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 16,65</t>
+          <t>-13,76; 19,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 16,56</t>
+          <t>-15,25; 18,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 15,9</t>
+          <t>-33,84; 8,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 0,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,91; -2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,76; -2,14</t>
+          <t>-19,34; 0,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 6,47</t>
+          <t>-18,24; 0,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 5,11</t>
+          <t>-25,81; -2,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 3,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-12,27; 6,62</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-13,5; 4,69</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-24,34; -0,22</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>-3,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>-15,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,82%</t>
+          <t>-11,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,13%</t>
+          <t>-12,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,92%</t>
+          <t>-18,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-5,8%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-8,2%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-16,95%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 28,8</t>
+          <t>-17,17; 33,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 28,09</t>
+          <t>-18,48; 29,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 28,3</t>
+          <t>-44,78; 10,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 1,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,01; -3,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,88; -3,04</t>
+          <t>-23,11; 0,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 9,7</t>
+          <t>-21,69; 0,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 7,56</t>
+          <t>-30,61; -2,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 5,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-15,41; 9,44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-16,88; 6,99</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-31,65; -1,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 5,37</t>
+          <t>-11,71; 4,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 10,13</t>
+          <t>-7,58; 7,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 5,98</t>
+          <t>-6,88; 10,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 5,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 6,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 5,11</t>
+          <t>-7,52; 6,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 3,83</t>
+          <t>-8,38; 6,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 6,66</t>
+          <t>-8,67; 6,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 4,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,04; 2,99</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 4,87</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 5,79</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,65%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,95%</t>
+          <t>-2,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-3,87%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,77%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 9,77</t>
+          <t>-17,42; 7,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 18,28</t>
+          <t>-11,28; 12,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 10,71</t>
+          <t>-10,24; 17,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 12,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 14,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 11,65</t>
+          <t>-13,9; 14,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 7,5</t>
+          <t>-15,49; 14,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 13,21</t>
+          <t>-16,37; 14,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 8,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-13,51; 5,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-9,07; 9,26</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; 10,73</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,25</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 9,93</t>
+          <t>-13,34; 4,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 11,33</t>
+          <t>-13,4; 3,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 1,97</t>
+          <t>-16,13; 3,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 7,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 6,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 10,84</t>
+          <t>-6,45; 7,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 6,45</t>
+          <t>-8,18; 7,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 6,41</t>
+          <t>-3,91; 11,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 3,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,73; 3,66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,09; 2,82</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 5,33</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>-7,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,6%</t>
+          <t>-10,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-5,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-4,83%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-2,55%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 19,98</t>
+          <t>-19,96; 6,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 23,0</t>
+          <t>-19,81; 6,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 3,72</t>
+          <t>-23,89; 5,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 26,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 23,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 39,35</t>
+          <t>-17,85; 27,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 16,41</t>
+          <t>-21,64; 25,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 16,27</t>
+          <t>-10,66; 40,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 9,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-15,16; 8,63</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-16,26; 6,41</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-14,04; 12,84</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>-6,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 5,57</t>
+          <t>-5,34; 11,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 8,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 5,43</t>
+          <t>-0,81; 15,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 3,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 2,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 6,11</t>
+          <t>-5,55; 8,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 3,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 4,08</t>
+          <t>-14,65; 0,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 4,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 7,49</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 5,71</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>-14,12%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 9,97</t>
+          <t>-9,16; 22,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 14,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 9,62</t>
+          <t>-1,04; 30,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 7,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 5,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 13,11</t>
+          <t>-11,05; 19,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 6,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 7,93</t>
+          <t>-28,43; 0,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 8,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 15,42</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-9,88; 11,58</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,37</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 5,18</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 7,0</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 5,58</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 3,56</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 3,5</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; 1,72</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 3,2</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 3,95</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 2,32</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-0,37%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-4,96%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-1,76%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-6,62; 8,94</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 12,09</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; 9,63</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 7,67</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; 7,63</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-13,58; 3,72</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 6,17</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 7,54</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 4,48</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
